--- a/config_11.2/permission_server_config.xlsx
+++ b/config_11.2/permission_server_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_11.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5902" uniqueCount="2240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5914" uniqueCount="2244">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -10225,10 +10225,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>actp_own_task_p_come_back_courtesy</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>回归礼遇（V</t>
     </r>
@@ -10299,19 +10295,39 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
+    <t>day_delay</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>day_delay</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_drop_act_nor</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_come_back_courtesy</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年11月2日之后注册玩家</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
     <t>回归超值礼包（V7-V12，非CPS，非冲金鸡）</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>day_delay</t>
+    <t>新人红包（非CPS，非冲金鸡）</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>day_delay</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_drop_act_nor</t>
+    <t>actp_own_task_p_new_player_red_bag</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -11197,7 +11213,7 @@
   <dimension ref="A1:Q527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A502" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C224" sqref="C224"/>
     </sheetView>
   </sheetViews>
@@ -16421,13 +16437,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P435"/>
+  <dimension ref="A1:P436"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D401" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D425" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E415" sqref="E415"/>
+      <selection pane="bottomRight" activeCell="D443" sqref="D443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -29728,7 +29744,7 @@
         <v>1</v>
       </c>
       <c r="C384" s="120" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="D384" s="96" t="s">
         <v>1577</v>
@@ -30575,7 +30591,7 @@
         <v>1</v>
       </c>
       <c r="C409" s="119" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="D409" s="119" t="s">
         <v>2091</v>
@@ -30674,7 +30690,7 @@
         <v>1</v>
       </c>
       <c r="C412" s="119" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="D412" s="119" t="s">
         <v>2101</v>
@@ -31307,10 +31323,10 @@
         <v>1</v>
       </c>
       <c r="C431" s="119" t="s">
+        <v>2238</v>
+      </c>
+      <c r="D431" s="119" t="s">
         <v>2224</v>
-      </c>
-      <c r="D431" s="119" t="s">
-        <v>2225</v>
       </c>
       <c r="G431" s="7">
         <v>531</v>
@@ -31342,10 +31358,10 @@
         <v>1</v>
       </c>
       <c r="C432" s="119" t="s">
+        <v>2227</v>
+      </c>
+      <c r="D432" s="119" t="s">
         <v>2228</v>
-      </c>
-      <c r="D432" s="119" t="s">
-        <v>2229</v>
       </c>
       <c r="G432" s="7">
         <v>531</v>
@@ -31377,10 +31393,10 @@
         <v>1</v>
       </c>
       <c r="C433" s="119" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="D433" s="119" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="G433" s="7">
         <v>528</v>
@@ -31392,7 +31408,7 @@
         <v>1</v>
       </c>
       <c r="J433" s="119" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="L433" s="7">
         <v>1635206400</v>
@@ -31409,10 +31425,10 @@
         <v>1</v>
       </c>
       <c r="C434" s="119" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="D434" s="119" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="G434" s="7">
         <v>529</v>
@@ -31424,7 +31440,7 @@
         <v>1</v>
       </c>
       <c r="J434" s="119" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="L434" s="7">
         <v>1635206400</v>
@@ -31441,10 +31457,10 @@
         <v>1</v>
       </c>
       <c r="C435" s="119" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="D435" s="119" t="s">
-        <v>2236</v>
+        <v>2241</v>
       </c>
       <c r="G435" s="7">
         <v>530</v>
@@ -31456,13 +31472,45 @@
         <v>1</v>
       </c>
       <c r="J435" s="119" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="L435" s="7">
         <v>1635206400</v>
       </c>
       <c r="M435" s="119" t="s">
         <v>2212</v>
+      </c>
+    </row>
+    <row r="436" spans="1:13">
+      <c r="A436" s="7">
+        <v>435</v>
+      </c>
+      <c r="B436" s="7">
+        <v>1</v>
+      </c>
+      <c r="C436" s="7" t="s">
+        <v>2243</v>
+      </c>
+      <c r="D436" s="7" t="s">
+        <v>2242</v>
+      </c>
+      <c r="G436" s="7">
+        <v>532</v>
+      </c>
+      <c r="H436" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I436" t="b">
+        <v>1</v>
+      </c>
+      <c r="J436" s="119" t="s">
+        <v>2236</v>
+      </c>
+      <c r="L436" s="7">
+        <v>1635782400</v>
+      </c>
+      <c r="M436" s="7" t="s">
+        <v>2239</v>
       </c>
     </row>
   </sheetData>
@@ -31475,13 +31523,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1191"/>
+  <dimension ref="A1:I1194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1160" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C1173" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C1193" sqref="C1193"/>
+      <selection pane="bottomRight" activeCell="A1189" sqref="A1189:A1194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -59726,7 +59774,7 @@
         <v>1</v>
       </c>
       <c r="G1187" s="122" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="1188" spans="1:7">
@@ -59819,6 +59867,75 @@
       </c>
       <c r="G1191" s="122" t="s">
         <v>2219</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:7">
+      <c r="A1192" s="9">
+        <v>1191</v>
+      </c>
+      <c r="B1192" s="21">
+        <v>532</v>
+      </c>
+      <c r="C1192" s="10" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D1192" s="24">
+        <v>1635811200</v>
+      </c>
+      <c r="E1192" s="9">
+        <v>3</v>
+      </c>
+      <c r="F1192" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1192" s="21" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:7">
+      <c r="A1193" s="9">
+        <v>1192</v>
+      </c>
+      <c r="B1193" s="21">
+        <v>532</v>
+      </c>
+      <c r="C1193" s="121" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D1193" s="123" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1193" s="21">
+        <v>5</v>
+      </c>
+      <c r="F1193" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1193" s="122" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:7">
+      <c r="A1194" s="9">
+        <v>1193</v>
+      </c>
+      <c r="B1194" s="21">
+        <v>532</v>
+      </c>
+      <c r="C1194" s="122" t="s">
+        <v>2059</v>
+      </c>
+      <c r="D1194" s="122" t="s">
+        <v>2130</v>
+      </c>
+      <c r="E1194" s="21">
+        <v>5</v>
+      </c>
+      <c r="F1194" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1194" s="122" t="s">
+        <v>2216</v>
       </c>
     </row>
   </sheetData>

--- a/config_11.2/permission_server_config.xlsx
+++ b/config_11.2/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5914" uniqueCount="2244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5916" uniqueCount="2245">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -10329,6 +10329,9 @@
   <si>
     <t>actp_own_task_p_new_player_red_bag</t>
     <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离上次登录大于7天</t>
   </si>
 </sst>
 </file>
@@ -16439,7 +16442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P436"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D425" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -31523,13 +31526,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1194"/>
+  <dimension ref="A1:I1195"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1173" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C1169" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1189" sqref="A1189:A1194"/>
+      <selection pane="bottomRight" activeCell="E1197" sqref="E1197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -59406,7 +59409,7 @@
         <v>1</v>
       </c>
       <c r="G1171" s="9" t="s">
-        <v>1763</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1172" spans="1:7">
@@ -59544,7 +59547,7 @@
         <v>1</v>
       </c>
       <c r="G1177" s="9" t="s">
-        <v>1763</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1178" spans="1:7">
@@ -59682,7 +59685,7 @@
         <v>1</v>
       </c>
       <c r="G1183" s="9" t="s">
-        <v>1763</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1184" spans="1:7">
@@ -59874,13 +59877,13 @@
         <v>1191</v>
       </c>
       <c r="B1192" s="21">
-        <v>532</v>
-      </c>
-      <c r="C1192" s="10" t="s">
-        <v>1670</v>
-      </c>
-      <c r="D1192" s="24">
-        <v>1635811200</v>
+        <v>531</v>
+      </c>
+      <c r="C1192" s="9" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D1192" s="9">
+        <v>604800</v>
       </c>
       <c r="E1192" s="9">
         <v>3</v>
@@ -59888,8 +59891,8 @@
       <c r="F1192" s="9">
         <v>1</v>
       </c>
-      <c r="G1192" s="21" t="s">
-        <v>2240</v>
+      <c r="G1192" s="9" t="s">
+        <v>2244</v>
       </c>
     </row>
     <row r="1193" spans="1:7">
@@ -59899,20 +59902,20 @@
       <c r="B1193" s="21">
         <v>532</v>
       </c>
-      <c r="C1193" s="121" t="s">
-        <v>1667</v>
-      </c>
-      <c r="D1193" s="123" t="s">
-        <v>2133</v>
-      </c>
-      <c r="E1193" s="21">
-        <v>5</v>
-      </c>
-      <c r="F1193" s="21">
-        <v>1</v>
-      </c>
-      <c r="G1193" s="122" t="s">
-        <v>2209</v>
+      <c r="C1193" s="10" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D1193" s="24">
+        <v>1635811200</v>
+      </c>
+      <c r="E1193" s="9">
+        <v>3</v>
+      </c>
+      <c r="F1193" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1193" s="21" t="s">
+        <v>2240</v>
       </c>
     </row>
     <row r="1194" spans="1:7">
@@ -59922,11 +59925,11 @@
       <c r="B1194" s="21">
         <v>532</v>
       </c>
-      <c r="C1194" s="122" t="s">
-        <v>2059</v>
-      </c>
-      <c r="D1194" s="122" t="s">
-        <v>2130</v>
+      <c r="C1194" s="121" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D1194" s="123" t="s">
+        <v>2133</v>
       </c>
       <c r="E1194" s="21">
         <v>5</v>
@@ -59935,6 +59938,29 @@
         <v>1</v>
       </c>
       <c r="G1194" s="122" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:7">
+      <c r="A1195" s="9">
+        <v>1194</v>
+      </c>
+      <c r="B1195" s="21">
+        <v>532</v>
+      </c>
+      <c r="C1195" s="122" t="s">
+        <v>2059</v>
+      </c>
+      <c r="D1195" s="122" t="s">
+        <v>2130</v>
+      </c>
+      <c r="E1195" s="21">
+        <v>5</v>
+      </c>
+      <c r="F1195" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1195" s="122" t="s">
         <v>2216</v>
       </c>
     </row>

--- a/config_11.2/permission_server_config.xlsx
+++ b/config_11.2/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5916" uniqueCount="2245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5916" uniqueCount="2247">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -10332,6 +10332,13 @@
   </si>
   <si>
     <t>距离上次登录大于7天</t>
+  </si>
+  <si>
+    <t>regress_time_dist</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离回归时间小于7天</t>
   </si>
 </sst>
 </file>
@@ -31532,7 +31539,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C1169" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E1197" sqref="E1197"/>
+      <selection pane="bottomRight" activeCell="G1200" sqref="G1200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -59397,19 +59404,19 @@
         <v>528</v>
       </c>
       <c r="C1171" s="9" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="D1171" s="9">
         <v>604800</v>
       </c>
       <c r="E1171" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1171" s="9">
         <v>1</v>
       </c>
-      <c r="G1171" s="9" t="s">
-        <v>2244</v>
+      <c r="G1171" s="121" t="s">
+        <v>2246</v>
       </c>
     </row>
     <row r="1172" spans="1:7">
@@ -59535,19 +59542,19 @@
         <v>529</v>
       </c>
       <c r="C1177" s="9" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="D1177" s="9">
         <v>604800</v>
       </c>
       <c r="E1177" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1177" s="9">
         <v>1</v>
       </c>
       <c r="G1177" s="9" t="s">
-        <v>2244</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1178" spans="1:7">
@@ -59673,19 +59680,19 @@
         <v>530</v>
       </c>
       <c r="C1183" s="9" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="D1183" s="9">
         <v>604800</v>
       </c>
       <c r="E1183" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1183" s="9">
         <v>1</v>
       </c>
       <c r="G1183" s="9" t="s">
-        <v>2244</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1184" spans="1:7">
@@ -60439,7 +60446,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B21" sqref="B21:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -60567,7 +60574,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>1765</v>
+        <v>2245</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>2047</v>

--- a/config_11.2/permission_server_config.xlsx
+++ b/config_11.2/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5916" uniqueCount="2247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5956" uniqueCount="2248">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -10339,6 +10339,10 @@
   </si>
   <si>
     <t>距离回归时间小于7天</t>
+  </si>
+  <si>
+    <t>last_login_time</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -16449,11 +16453,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P436"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D425" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D443" sqref="D443"/>
+      <selection pane="bottomRight" activeCell="F445" sqref="F445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -31234,7 +31238,7 @@
         <v>2221</v>
       </c>
       <c r="G428" s="7">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="H428" s="7" t="b">
         <v>1</v>
@@ -31269,7 +31273,7 @@
         <v>2222</v>
       </c>
       <c r="G429" s="7">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="H429" s="7" t="b">
         <v>1</v>
@@ -31304,7 +31308,7 @@
         <v>2223</v>
       </c>
       <c r="G430" s="7">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="H430" s="7" t="b">
         <v>1</v>
@@ -31533,13 +31537,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1195"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1169" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C1184" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G1200" sqref="G1200"/>
+      <selection pane="bottomRight" activeCell="A1189" sqref="A1189:A1212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -59795,7 +59799,7 @@
         <v>531</v>
       </c>
       <c r="C1188" s="10" t="s">
-        <v>1672</v>
+        <v>2247</v>
       </c>
       <c r="D1188" s="9">
         <v>0</v>
@@ -59909,11 +59913,11 @@
       <c r="B1193" s="21">
         <v>532</v>
       </c>
-      <c r="C1193" s="10" t="s">
-        <v>1670</v>
-      </c>
-      <c r="D1193" s="24">
-        <v>1635811200</v>
+      <c r="C1193" s="9" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D1193" s="9">
+        <v>604800</v>
       </c>
       <c r="E1193" s="9">
         <v>3</v>
@@ -59921,8 +59925,8 @@
       <c r="F1193" s="9">
         <v>1</v>
       </c>
-      <c r="G1193" s="21" t="s">
-        <v>2240</v>
+      <c r="G1193" s="9" t="s">
+        <v>2244</v>
       </c>
     </row>
     <row r="1194" spans="1:7">
@@ -59932,20 +59936,20 @@
       <c r="B1194" s="21">
         <v>532</v>
       </c>
-      <c r="C1194" s="121" t="s">
-        <v>1667</v>
-      </c>
-      <c r="D1194" s="123" t="s">
-        <v>2133</v>
-      </c>
-      <c r="E1194" s="21">
+      <c r="C1194" s="10" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D1194" s="9">
+        <v>0</v>
+      </c>
+      <c r="E1194" s="9">
         <v>5</v>
       </c>
-      <c r="F1194" s="21">
-        <v>1</v>
-      </c>
-      <c r="G1194" s="122" t="s">
-        <v>2209</v>
+      <c r="F1194" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1194" s="10" t="s">
+        <v>1764</v>
       </c>
     </row>
     <row r="1195" spans="1:7">
@@ -59955,11 +59959,11 @@
       <c r="B1195" s="21">
         <v>532</v>
       </c>
-      <c r="C1195" s="122" t="s">
-        <v>2059</v>
-      </c>
-      <c r="D1195" s="122" t="s">
-        <v>2130</v>
+      <c r="C1195" s="121" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D1195" s="123" t="s">
+        <v>2133</v>
       </c>
       <c r="E1195" s="21">
         <v>5</v>
@@ -59968,6 +59972,397 @@
         <v>1</v>
       </c>
       <c r="G1195" s="122" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:7">
+      <c r="A1196" s="9">
+        <v>1195</v>
+      </c>
+      <c r="B1196" s="21">
+        <v>532</v>
+      </c>
+      <c r="C1196" s="122" t="s">
+        <v>2059</v>
+      </c>
+      <c r="D1196" s="122" t="s">
+        <v>2130</v>
+      </c>
+      <c r="E1196" s="21">
+        <v>5</v>
+      </c>
+      <c r="F1196" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1196" s="122" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:7">
+      <c r="A1197" s="9">
+        <v>1196</v>
+      </c>
+      <c r="B1197" s="21">
+        <v>532</v>
+      </c>
+      <c r="C1197" s="122" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D1197" s="21">
+        <v>1</v>
+      </c>
+      <c r="E1197" s="21">
+        <v>3</v>
+      </c>
+      <c r="F1197" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1197" s="122" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:7">
+      <c r="A1198" s="9">
+        <v>1197</v>
+      </c>
+      <c r="B1198" s="21">
+        <v>532</v>
+      </c>
+      <c r="C1198" s="122" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D1198" s="21">
+        <v>3</v>
+      </c>
+      <c r="E1198" s="21">
+        <v>4</v>
+      </c>
+      <c r="F1198" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1198" s="122" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:7">
+      <c r="A1199" s="9">
+        <v>1198</v>
+      </c>
+      <c r="B1199" s="21">
+        <v>533</v>
+      </c>
+      <c r="C1199" s="9" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D1199" s="9">
+        <v>604800</v>
+      </c>
+      <c r="E1199" s="9">
+        <v>3</v>
+      </c>
+      <c r="F1199" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1199" s="9" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:7">
+      <c r="A1200" s="9">
+        <v>1199</v>
+      </c>
+      <c r="B1200" s="21">
+        <v>533</v>
+      </c>
+      <c r="C1200" s="10" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D1200" s="9">
+        <v>0</v>
+      </c>
+      <c r="E1200" s="9">
+        <v>5</v>
+      </c>
+      <c r="F1200" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1200" s="10" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:7">
+      <c r="A1201" s="9">
+        <v>1200</v>
+      </c>
+      <c r="B1201" s="21">
+        <v>533</v>
+      </c>
+      <c r="C1201" s="121" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D1201" s="123" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1201" s="21">
+        <v>5</v>
+      </c>
+      <c r="F1201" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1201" s="122" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:7">
+      <c r="A1202" s="9">
+        <v>1201</v>
+      </c>
+      <c r="B1202" s="21">
+        <v>533</v>
+      </c>
+      <c r="C1202" s="122" t="s">
+        <v>2059</v>
+      </c>
+      <c r="D1202" s="122" t="s">
+        <v>2130</v>
+      </c>
+      <c r="E1202" s="21">
+        <v>5</v>
+      </c>
+      <c r="F1202" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1202" s="122" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:7">
+      <c r="A1203" s="9">
+        <v>1202</v>
+      </c>
+      <c r="B1203" s="21">
+        <v>533</v>
+      </c>
+      <c r="C1203" s="122" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D1203" s="21">
+        <v>4</v>
+      </c>
+      <c r="E1203" s="21">
+        <v>3</v>
+      </c>
+      <c r="F1203" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1203" s="122" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:7">
+      <c r="A1204" s="9">
+        <v>1203</v>
+      </c>
+      <c r="B1204" s="21">
+        <v>533</v>
+      </c>
+      <c r="C1204" s="122" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D1204" s="21">
+        <v>6</v>
+      </c>
+      <c r="E1204" s="21">
+        <v>4</v>
+      </c>
+      <c r="F1204" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1204" s="122" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:7">
+      <c r="A1205" s="9">
+        <v>1204</v>
+      </c>
+      <c r="B1205" s="21">
+        <v>534</v>
+      </c>
+      <c r="C1205" s="9" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D1205" s="9">
+        <v>604800</v>
+      </c>
+      <c r="E1205" s="9">
+        <v>3</v>
+      </c>
+      <c r="F1205" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1205" s="9" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:7">
+      <c r="A1206" s="9">
+        <v>1205</v>
+      </c>
+      <c r="B1206" s="21">
+        <v>534</v>
+      </c>
+      <c r="C1206" s="10" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D1206" s="9">
+        <v>0</v>
+      </c>
+      <c r="E1206" s="9">
+        <v>5</v>
+      </c>
+      <c r="F1206" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1206" s="10" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:7">
+      <c r="A1207" s="9">
+        <v>1206</v>
+      </c>
+      <c r="B1207" s="21">
+        <v>534</v>
+      </c>
+      <c r="C1207" s="121" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D1207" s="123" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1207" s="21">
+        <v>5</v>
+      </c>
+      <c r="F1207" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1207" s="122" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:7">
+      <c r="A1208" s="9">
+        <v>1207</v>
+      </c>
+      <c r="B1208" s="21">
+        <v>534</v>
+      </c>
+      <c r="C1208" s="122" t="s">
+        <v>2059</v>
+      </c>
+      <c r="D1208" s="122" t="s">
+        <v>2130</v>
+      </c>
+      <c r="E1208" s="21">
+        <v>5</v>
+      </c>
+      <c r="F1208" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1208" s="122" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:7">
+      <c r="A1209" s="9">
+        <v>1208</v>
+      </c>
+      <c r="B1209" s="21">
+        <v>534</v>
+      </c>
+      <c r="C1209" s="122" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D1209" s="21">
+        <v>7</v>
+      </c>
+      <c r="E1209" s="21">
+        <v>3</v>
+      </c>
+      <c r="F1209" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1209" s="122" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:7">
+      <c r="A1210" s="9">
+        <v>1209</v>
+      </c>
+      <c r="B1210" s="21">
+        <v>535</v>
+      </c>
+      <c r="C1210" s="10" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D1210" s="24">
+        <v>1635811200</v>
+      </c>
+      <c r="E1210" s="9">
+        <v>3</v>
+      </c>
+      <c r="F1210" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1210" s="21" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:7">
+      <c r="A1211" s="9">
+        <v>1210</v>
+      </c>
+      <c r="B1211" s="21">
+        <v>535</v>
+      </c>
+      <c r="C1211" s="121" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D1211" s="123" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E1211" s="21">
+        <v>5</v>
+      </c>
+      <c r="F1211" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1211" s="122" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:7">
+      <c r="A1212" s="9">
+        <v>1211</v>
+      </c>
+      <c r="B1212" s="21">
+        <v>535</v>
+      </c>
+      <c r="C1212" s="122" t="s">
+        <v>2059</v>
+      </c>
+      <c r="D1212" s="122" t="s">
+        <v>2130</v>
+      </c>
+      <c r="E1212" s="21">
+        <v>5</v>
+      </c>
+      <c r="F1212" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1212" s="122" t="s">
         <v>2216</v>
       </c>
     </row>

--- a/config_11.2/permission_server_config.xlsx
+++ b/config_11.2/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5956" uniqueCount="2248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5996" uniqueCount="2256">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -10171,14 +10171,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>vip_level</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>vip_level</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>V</t>
     </r>
@@ -10196,6 +10188,171 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
+    <t>回归活动权限（VIP1-VIP3，非CPS非冲金鸡）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归活动权限（VIP4-VIP6，非CPS非冲金鸡）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归活动权限（VIP7以上，非CPS非冲金鸡）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>回归礼遇（V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1以上，非冲金鸡非CPS）</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10622</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10641</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归礼遇付费解锁（V1以上，非冲金鸡非CPS）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_integral_gift_buy_v1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_come_back_value_gift1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_come_back_value_gift2</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_come_back_value_gift3</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>回归超值礼包（V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1-V3，非CPS，非冲金鸡）</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归超值礼包（V4-V6，非CPS，非冲金鸡）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>day_delay</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>day_delay</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_drop_act_nor</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_come_back_courtesy</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归超值礼包（V7-V12，非CPS，非冲金鸡）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人红包（非CPS，非冲金鸡）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_new_player_red_bag</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离上次登录大于7天</t>
+  </si>
+  <si>
+    <t>regress_time_dist</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离回归时间小于7天</t>
+  </si>
+  <si>
+    <t>3dby_cps</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是CPS渠道</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>share_condition</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_all</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是冲金鸡玩家</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_level</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IP1及以上玩家</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_level</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>V</t>
     </r>
@@ -10213,32 +10370,7 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>回归活动权限（VIP1-VIP3，非CPS非冲金鸡）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>回归活动权限（VIP4-VIP6，非CPS非冲金鸡）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>回归活动权限（VIP7以上，非CPS非冲金鸡）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>回归礼遇（V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1以上，非冲金鸡非CPS）</t>
-    </r>
+    <t>cjj_all</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -10246,102 +10378,15 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>actp_buy_gift_bag_10622</t>
+    <t>不是CPS渠道</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>actp_buy_gift_bag_10641</t>
+    <t>不是冲金鸡玩家</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>回归礼遇付费解锁（V1以上，非冲金鸡非CPS）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_class_integral_gift_buy_v1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_class_come_back_value_gift1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_class_come_back_value_gift2</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_class_come_back_value_gift3</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>回归超值礼包（V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1-V3，非CPS，非冲金鸡）</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>回归超值礼包（V4-V6，非CPS，非冲金鸡）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>day_delay</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>day_delay</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_drop_act_nor</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_come_back_courtesy</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>永久</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>2021年11月2日之后注册玩家</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>回归超值礼包（V7-V12，非CPS，非冲金鸡）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人红包（非CPS，非冲金鸡）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_new_player_red_bag</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>距离上次登录大于7天</t>
-  </si>
-  <si>
-    <t>regress_time_dist</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>距离回归时间小于7天</t>
-  </si>
-  <si>
-    <t>last_login_time</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -16453,11 +16498,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P436"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D425" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F445" sqref="F445"/>
+      <selection pane="bottomRight" activeCell="D444" sqref="D444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -29758,7 +29803,7 @@
         <v>1</v>
       </c>
       <c r="C384" s="120" t="s">
-        <v>2229</v>
+        <v>2225</v>
       </c>
       <c r="D384" s="96" t="s">
         <v>1577</v>
@@ -30605,7 +30650,7 @@
         <v>1</v>
       </c>
       <c r="C409" s="119" t="s">
-        <v>2237</v>
+        <v>2233</v>
       </c>
       <c r="D409" s="119" t="s">
         <v>2091</v>
@@ -30704,7 +30749,7 @@
         <v>1</v>
       </c>
       <c r="C412" s="119" t="s">
-        <v>2226</v>
+        <v>2222</v>
       </c>
       <c r="D412" s="119" t="s">
         <v>2101</v>
@@ -31235,7 +31280,7 @@
         <v>2213</v>
       </c>
       <c r="D428" s="119" t="s">
-        <v>2221</v>
+        <v>2218</v>
       </c>
       <c r="G428" s="7">
         <v>532</v>
@@ -31270,7 +31315,7 @@
         <v>2214</v>
       </c>
       <c r="D429" s="119" t="s">
-        <v>2222</v>
+        <v>2219</v>
       </c>
       <c r="G429" s="7">
         <v>533</v>
@@ -31305,7 +31350,7 @@
         <v>2215</v>
       </c>
       <c r="D430" s="119" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
       <c r="G430" s="7">
         <v>534</v>
@@ -31337,10 +31382,10 @@
         <v>1</v>
       </c>
       <c r="C431" s="119" t="s">
-        <v>2238</v>
+        <v>2234</v>
       </c>
       <c r="D431" s="119" t="s">
-        <v>2224</v>
+        <v>2221</v>
       </c>
       <c r="G431" s="7">
         <v>531</v>
@@ -31372,10 +31417,10 @@
         <v>1</v>
       </c>
       <c r="C432" s="119" t="s">
-        <v>2227</v>
+        <v>2223</v>
       </c>
       <c r="D432" s="119" t="s">
-        <v>2228</v>
+        <v>2224</v>
       </c>
       <c r="G432" s="7">
         <v>531</v>
@@ -31407,10 +31452,10 @@
         <v>1</v>
       </c>
       <c r="C433" s="119" t="s">
-        <v>2230</v>
+        <v>2226</v>
       </c>
       <c r="D433" s="119" t="s">
-        <v>2233</v>
+        <v>2229</v>
       </c>
       <c r="G433" s="7">
         <v>528</v>
@@ -31422,7 +31467,7 @@
         <v>1</v>
       </c>
       <c r="J433" s="119" t="s">
-        <v>2235</v>
+        <v>2231</v>
       </c>
       <c r="L433" s="7">
         <v>1635206400</v>
@@ -31439,10 +31484,10 @@
         <v>1</v>
       </c>
       <c r="C434" s="119" t="s">
-        <v>2231</v>
+        <v>2227</v>
       </c>
       <c r="D434" s="119" t="s">
-        <v>2234</v>
+        <v>2230</v>
       </c>
       <c r="G434" s="7">
         <v>529</v>
@@ -31454,7 +31499,7 @@
         <v>1</v>
       </c>
       <c r="J434" s="119" t="s">
-        <v>2236</v>
+        <v>2232</v>
       </c>
       <c r="L434" s="7">
         <v>1635206400</v>
@@ -31471,10 +31516,10 @@
         <v>1</v>
       </c>
       <c r="C435" s="119" t="s">
-        <v>2232</v>
+        <v>2228</v>
       </c>
       <c r="D435" s="119" t="s">
-        <v>2241</v>
+        <v>2236</v>
       </c>
       <c r="G435" s="7">
         <v>530</v>
@@ -31486,7 +31531,7 @@
         <v>1</v>
       </c>
       <c r="J435" s="119" t="s">
-        <v>2236</v>
+        <v>2232</v>
       </c>
       <c r="L435" s="7">
         <v>1635206400</v>
@@ -31503,13 +31548,13 @@
         <v>1</v>
       </c>
       <c r="C436" s="7" t="s">
-        <v>2243</v>
+        <v>2238</v>
       </c>
       <c r="D436" s="7" t="s">
-        <v>2242</v>
+        <v>2237</v>
       </c>
       <c r="G436" s="7">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="H436" s="7" t="b">
         <v>1</v>
@@ -31518,13 +31563,13 @@
         <v>1</v>
       </c>
       <c r="J436" s="119" t="s">
-        <v>2236</v>
+        <v>2232</v>
       </c>
       <c r="L436" s="7">
         <v>1635782400</v>
       </c>
       <c r="M436" s="7" t="s">
-        <v>2239</v>
+        <v>2235</v>
       </c>
     </row>
   </sheetData>
@@ -31537,13 +31582,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1184" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C1211" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1189" sqref="A1189:A1212"/>
+      <selection pane="bottomRight" activeCell="E1239" sqref="E1239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -59419,8 +59464,8 @@
       <c r="F1171" s="9">
         <v>1</v>
       </c>
-      <c r="G1171" s="121" t="s">
-        <v>2246</v>
+      <c r="G1171" s="9" t="s">
+        <v>2241</v>
       </c>
     </row>
     <row r="1172" spans="1:7">
@@ -59457,7 +59502,7 @@
         <v>1667</v>
       </c>
       <c r="D1173" s="123" t="s">
-        <v>2133</v>
+        <v>2242</v>
       </c>
       <c r="E1173" s="21">
         <v>5</v>
@@ -59466,7 +59511,7 @@
         <v>1</v>
       </c>
       <c r="G1173" s="122" t="s">
-        <v>2209</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1174" spans="1:7">
@@ -59477,10 +59522,10 @@
         <v>528</v>
       </c>
       <c r="C1174" s="122" t="s">
-        <v>2059</v>
+        <v>2244</v>
       </c>
       <c r="D1174" s="122" t="s">
-        <v>2130</v>
+        <v>2245</v>
       </c>
       <c r="E1174" s="21">
         <v>5</v>
@@ -59489,7 +59534,7 @@
         <v>1</v>
       </c>
       <c r="G1174" s="122" t="s">
-        <v>2216</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1175" spans="1:7">
@@ -59500,7 +59545,7 @@
         <v>528</v>
       </c>
       <c r="C1175" s="122" t="s">
-        <v>2217</v>
+        <v>2247</v>
       </c>
       <c r="D1175" s="21">
         <v>1</v>
@@ -59512,7 +59557,7 @@
         <v>1</v>
       </c>
       <c r="G1175" s="122" t="s">
-        <v>2219</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1176" spans="1:7">
@@ -59523,7 +59568,7 @@
         <v>528</v>
       </c>
       <c r="C1176" s="122" t="s">
-        <v>2218</v>
+        <v>2249</v>
       </c>
       <c r="D1176" s="21">
         <v>3</v>
@@ -59535,7 +59580,7 @@
         <v>1</v>
       </c>
       <c r="G1176" s="122" t="s">
-        <v>2220</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="1177" spans="1:7">
@@ -59543,22 +59588,22 @@
         <v>1176</v>
       </c>
       <c r="B1177" s="21">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C1177" s="9" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="D1177" s="9">
         <v>604800</v>
       </c>
       <c r="E1177" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1177" s="9">
-        <v>1</v>
-      </c>
-      <c r="G1177" s="9" t="s">
-        <v>2246</v>
+        <v>2</v>
+      </c>
+      <c r="G1177" s="121" t="s">
+        <v>2239</v>
       </c>
     </row>
     <row r="1178" spans="1:7">
@@ -59566,7 +59611,7 @@
         <v>1177</v>
       </c>
       <c r="B1178" s="21">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C1178" s="10" t="s">
         <v>1672</v>
@@ -59578,7 +59623,7 @@
         <v>5</v>
       </c>
       <c r="F1178" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1178" s="10" t="s">
         <v>1764</v>
@@ -59589,22 +59634,22 @@
         <v>1178</v>
       </c>
       <c r="B1179" s="21">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C1179" s="121" t="s">
         <v>1667</v>
       </c>
       <c r="D1179" s="123" t="s">
-        <v>2133</v>
+        <v>2242</v>
       </c>
       <c r="E1179" s="21">
         <v>5</v>
       </c>
       <c r="F1179" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1179" s="122" t="s">
-        <v>2209</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1180" spans="1:7">
@@ -59612,22 +59657,22 @@
         <v>1179</v>
       </c>
       <c r="B1180" s="21">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C1180" s="122" t="s">
-        <v>2059</v>
+        <v>2244</v>
       </c>
       <c r="D1180" s="122" t="s">
-        <v>2130</v>
+        <v>2245</v>
       </c>
       <c r="E1180" s="21">
         <v>5</v>
       </c>
       <c r="F1180" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1180" s="122" t="s">
-        <v>2216</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1181" spans="1:7">
@@ -59635,22 +59680,22 @@
         <v>1180</v>
       </c>
       <c r="B1181" s="21">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C1181" s="122" t="s">
-        <v>2217</v>
+        <v>2161</v>
       </c>
       <c r="D1181" s="21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E1181" s="21">
         <v>3</v>
       </c>
       <c r="F1181" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1181" s="122" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="1182" spans="1:7">
@@ -59658,22 +59703,22 @@
         <v>1181</v>
       </c>
       <c r="B1182" s="21">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C1182" s="122" t="s">
-        <v>2218</v>
+        <v>2247</v>
       </c>
       <c r="D1182" s="21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E1182" s="21">
         <v>4</v>
       </c>
       <c r="F1182" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1182" s="122" t="s">
-        <v>2220</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="1183" spans="1:7">
@@ -59681,7 +59726,7 @@
         <v>1182</v>
       </c>
       <c r="B1183" s="21">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C1183" s="9" t="s">
         <v>1765</v>
@@ -59696,7 +59741,7 @@
         <v>1</v>
       </c>
       <c r="G1183" s="9" t="s">
-        <v>2246</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="1184" spans="1:7">
@@ -59704,7 +59749,7 @@
         <v>1183</v>
       </c>
       <c r="B1184" s="21">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C1184" s="10" t="s">
         <v>1672</v>
@@ -59727,7 +59772,7 @@
         <v>1184</v>
       </c>
       <c r="B1185" s="21">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C1185" s="121" t="s">
         <v>1667</v>
@@ -59742,7 +59787,7 @@
         <v>1</v>
       </c>
       <c r="G1185" s="122" t="s">
-        <v>2209</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1186" spans="1:7">
@@ -59750,13 +59795,13 @@
         <v>1185</v>
       </c>
       <c r="B1186" s="21">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C1186" s="122" t="s">
-        <v>2059</v>
+        <v>2244</v>
       </c>
       <c r="D1186" s="122" t="s">
-        <v>2130</v>
+        <v>2251</v>
       </c>
       <c r="E1186" s="21">
         <v>5</v>
@@ -59765,7 +59810,7 @@
         <v>1</v>
       </c>
       <c r="G1186" s="122" t="s">
-        <v>2216</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1187" spans="1:7">
@@ -59773,13 +59818,13 @@
         <v>1186</v>
       </c>
       <c r="B1187" s="21">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C1187" s="122" t="s">
-        <v>2217</v>
+        <v>2161</v>
       </c>
       <c r="D1187" s="21">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E1187" s="21">
         <v>3</v>
@@ -59788,7 +59833,7 @@
         <v>1</v>
       </c>
       <c r="G1187" s="122" t="s">
-        <v>2225</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1188" spans="1:7">
@@ -59796,22 +59841,22 @@
         <v>1187</v>
       </c>
       <c r="B1188" s="21">
-        <v>531</v>
-      </c>
-      <c r="C1188" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="C1188" s="122" t="s">
         <v>2247</v>
       </c>
-      <c r="D1188" s="9">
-        <v>0</v>
-      </c>
-      <c r="E1188" s="9">
-        <v>5</v>
-      </c>
-      <c r="F1188" s="9">
-        <v>1</v>
-      </c>
-      <c r="G1188" s="10" t="s">
-        <v>1764</v>
+      <c r="D1188" s="21">
+        <v>6</v>
+      </c>
+      <c r="E1188" s="21">
+        <v>4</v>
+      </c>
+      <c r="F1188" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1188" s="122" t="s">
+        <v>2250</v>
       </c>
     </row>
     <row r="1189" spans="1:7">
@@ -59819,22 +59864,22 @@
         <v>1188</v>
       </c>
       <c r="B1189" s="21">
-        <v>531</v>
-      </c>
-      <c r="C1189" s="121" t="s">
-        <v>1667</v>
-      </c>
-      <c r="D1189" s="123" t="s">
-        <v>2133</v>
-      </c>
-      <c r="E1189" s="21">
-        <v>5</v>
-      </c>
-      <c r="F1189" s="21">
-        <v>1</v>
-      </c>
-      <c r="G1189" s="122" t="s">
-        <v>2209</v>
+        <v>529</v>
+      </c>
+      <c r="C1189" s="9" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D1189" s="9">
+        <v>604800</v>
+      </c>
+      <c r="E1189" s="9">
+        <v>3</v>
+      </c>
+      <c r="F1189" s="9">
+        <v>2</v>
+      </c>
+      <c r="G1189" s="121" t="s">
+        <v>2239</v>
       </c>
     </row>
     <row r="1190" spans="1:7">
@@ -59842,22 +59887,22 @@
         <v>1189</v>
       </c>
       <c r="B1190" s="21">
-        <v>531</v>
-      </c>
-      <c r="C1190" s="122" t="s">
-        <v>2059</v>
-      </c>
-      <c r="D1190" s="122" t="s">
-        <v>2130</v>
-      </c>
-      <c r="E1190" s="21">
+        <v>529</v>
+      </c>
+      <c r="C1190" s="10" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D1190" s="9">
+        <v>0</v>
+      </c>
+      <c r="E1190" s="9">
         <v>5</v>
       </c>
-      <c r="F1190" s="21">
-        <v>1</v>
-      </c>
-      <c r="G1190" s="122" t="s">
-        <v>2216</v>
+      <c r="F1190" s="9">
+        <v>2</v>
+      </c>
+      <c r="G1190" s="10" t="s">
+        <v>1764</v>
       </c>
     </row>
     <row r="1191" spans="1:7">
@@ -59865,22 +59910,22 @@
         <v>1190</v>
       </c>
       <c r="B1191" s="21">
-        <v>531</v>
-      </c>
-      <c r="C1191" s="122" t="s">
-        <v>2217</v>
-      </c>
-      <c r="D1191" s="21">
-        <v>1</v>
+        <v>529</v>
+      </c>
+      <c r="C1191" s="121" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D1191" s="123" t="s">
+        <v>2242</v>
       </c>
       <c r="E1191" s="21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1191" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1191" s="122" t="s">
-        <v>2219</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1192" spans="1:7">
@@ -59888,22 +59933,22 @@
         <v>1191</v>
       </c>
       <c r="B1192" s="21">
-        <v>531</v>
-      </c>
-      <c r="C1192" s="9" t="s">
-        <v>1762</v>
-      </c>
-      <c r="D1192" s="9">
-        <v>604800</v>
-      </c>
-      <c r="E1192" s="9">
-        <v>3</v>
-      </c>
-      <c r="F1192" s="9">
-        <v>1</v>
-      </c>
-      <c r="G1192" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="C1192" s="122" t="s">
         <v>2244</v>
+      </c>
+      <c r="D1192" s="122" t="s">
+        <v>2251</v>
+      </c>
+      <c r="E1192" s="21">
+        <v>5</v>
+      </c>
+      <c r="F1192" s="21">
+        <v>2</v>
+      </c>
+      <c r="G1192" s="122" t="s">
+        <v>2246</v>
       </c>
     </row>
     <row r="1193" spans="1:7">
@@ -59911,22 +59956,22 @@
         <v>1192</v>
       </c>
       <c r="B1193" s="21">
-        <v>532</v>
-      </c>
-      <c r="C1193" s="9" t="s">
-        <v>1762</v>
-      </c>
-      <c r="D1193" s="9">
-        <v>604800</v>
-      </c>
-      <c r="E1193" s="9">
+        <v>529</v>
+      </c>
+      <c r="C1193" s="122" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D1193" s="21">
+        <v>4</v>
+      </c>
+      <c r="E1193" s="21">
         <v>3</v>
       </c>
-      <c r="F1193" s="9">
-        <v>1</v>
-      </c>
-      <c r="G1193" s="9" t="s">
-        <v>2244</v>
+      <c r="F1193" s="21">
+        <v>2</v>
+      </c>
+      <c r="G1193" s="122" t="s">
+        <v>2248</v>
       </c>
     </row>
     <row r="1194" spans="1:7">
@@ -59934,22 +59979,22 @@
         <v>1193</v>
       </c>
       <c r="B1194" s="21">
-        <v>532</v>
-      </c>
-      <c r="C1194" s="10" t="s">
-        <v>1672</v>
-      </c>
-      <c r="D1194" s="9">
-        <v>0</v>
-      </c>
-      <c r="E1194" s="9">
-        <v>5</v>
-      </c>
-      <c r="F1194" s="9">
-        <v>1</v>
-      </c>
-      <c r="G1194" s="10" t="s">
-        <v>1764</v>
+        <v>529</v>
+      </c>
+      <c r="C1194" s="122" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D1194" s="21">
+        <v>6</v>
+      </c>
+      <c r="E1194" s="21">
+        <v>4</v>
+      </c>
+      <c r="F1194" s="21">
+        <v>2</v>
+      </c>
+      <c r="G1194" s="122" t="s">
+        <v>2250</v>
       </c>
     </row>
     <row r="1195" spans="1:7">
@@ -59957,22 +60002,22 @@
         <v>1194</v>
       </c>
       <c r="B1195" s="21">
-        <v>532</v>
-      </c>
-      <c r="C1195" s="121" t="s">
-        <v>1667</v>
-      </c>
-      <c r="D1195" s="123" t="s">
-        <v>2133</v>
-      </c>
-      <c r="E1195" s="21">
-        <v>5</v>
-      </c>
-      <c r="F1195" s="21">
-        <v>1</v>
-      </c>
-      <c r="G1195" s="122" t="s">
-        <v>2209</v>
+        <v>530</v>
+      </c>
+      <c r="C1195" s="9" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D1195" s="9">
+        <v>604800</v>
+      </c>
+      <c r="E1195" s="9">
+        <v>4</v>
+      </c>
+      <c r="F1195" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1195" s="121" t="s">
+        <v>2241</v>
       </c>
     </row>
     <row r="1196" spans="1:7">
@@ -59980,22 +60025,22 @@
         <v>1195</v>
       </c>
       <c r="B1196" s="21">
-        <v>532</v>
-      </c>
-      <c r="C1196" s="122" t="s">
-        <v>2059</v>
-      </c>
-      <c r="D1196" s="122" t="s">
-        <v>2130</v>
-      </c>
-      <c r="E1196" s="21">
+        <v>530</v>
+      </c>
+      <c r="C1196" s="10" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D1196" s="9">
+        <v>0</v>
+      </c>
+      <c r="E1196" s="9">
         <v>5</v>
       </c>
-      <c r="F1196" s="21">
-        <v>1</v>
-      </c>
-      <c r="G1196" s="122" t="s">
-        <v>2216</v>
+      <c r="F1196" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1196" s="10" t="s">
+        <v>1764</v>
       </c>
     </row>
     <row r="1197" spans="1:7">
@@ -60003,22 +60048,22 @@
         <v>1196</v>
       </c>
       <c r="B1197" s="21">
-        <v>532</v>
-      </c>
-      <c r="C1197" s="122" t="s">
-        <v>2161</v>
-      </c>
-      <c r="D1197" s="21">
-        <v>1</v>
+        <v>530</v>
+      </c>
+      <c r="C1197" s="121" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D1197" s="123" t="s">
+        <v>2242</v>
       </c>
       <c r="E1197" s="21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1197" s="21">
         <v>1</v>
       </c>
       <c r="G1197" s="122" t="s">
-        <v>2219</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1198" spans="1:7">
@@ -60026,22 +60071,22 @@
         <v>1197</v>
       </c>
       <c r="B1198" s="21">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C1198" s="122" t="s">
-        <v>2161</v>
-      </c>
-      <c r="D1198" s="21">
-        <v>3</v>
+        <v>2059</v>
+      </c>
+      <c r="D1198" s="122" t="s">
+        <v>2251</v>
       </c>
       <c r="E1198" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1198" s="21">
         <v>1</v>
       </c>
       <c r="G1198" s="122" t="s">
-        <v>2220</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1199" spans="1:7">
@@ -60049,22 +60094,22 @@
         <v>1198</v>
       </c>
       <c r="B1199" s="21">
-        <v>533</v>
-      </c>
-      <c r="C1199" s="9" t="s">
-        <v>1762</v>
-      </c>
-      <c r="D1199" s="9">
-        <v>604800</v>
-      </c>
-      <c r="E1199" s="9">
+        <v>530</v>
+      </c>
+      <c r="C1199" s="122" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D1199" s="21">
+        <v>7</v>
+      </c>
+      <c r="E1199" s="21">
         <v>3</v>
       </c>
-      <c r="F1199" s="9">
-        <v>1</v>
-      </c>
-      <c r="G1199" s="9" t="s">
-        <v>2244</v>
+      <c r="F1199" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1199" s="122" t="s">
+        <v>2252</v>
       </c>
     </row>
     <row r="1200" spans="1:7">
@@ -60072,22 +60117,22 @@
         <v>1199</v>
       </c>
       <c r="B1200" s="21">
-        <v>533</v>
-      </c>
-      <c r="C1200" s="10" t="s">
-        <v>1672</v>
+        <v>530</v>
+      </c>
+      <c r="C1200" s="9" t="s">
+        <v>1762</v>
       </c>
       <c r="D1200" s="9">
-        <v>0</v>
+        <v>604800</v>
       </c>
       <c r="E1200" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1200" s="9">
-        <v>1</v>
-      </c>
-      <c r="G1200" s="10" t="s">
-        <v>1764</v>
+        <v>2</v>
+      </c>
+      <c r="G1200" s="121" t="s">
+        <v>2239</v>
       </c>
     </row>
     <row r="1201" spans="1:7">
@@ -60095,22 +60140,22 @@
         <v>1200</v>
       </c>
       <c r="B1201" s="21">
-        <v>533</v>
-      </c>
-      <c r="C1201" s="121" t="s">
-        <v>1667</v>
-      </c>
-      <c r="D1201" s="123" t="s">
-        <v>2133</v>
-      </c>
-      <c r="E1201" s="21">
+        <v>530</v>
+      </c>
+      <c r="C1201" s="10" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D1201" s="9">
+        <v>0</v>
+      </c>
+      <c r="E1201" s="9">
         <v>5</v>
       </c>
-      <c r="F1201" s="21">
-        <v>1</v>
-      </c>
-      <c r="G1201" s="122" t="s">
-        <v>2209</v>
+      <c r="F1201" s="9">
+        <v>2</v>
+      </c>
+      <c r="G1201" s="10" t="s">
+        <v>1764</v>
       </c>
     </row>
     <row r="1202" spans="1:7">
@@ -60118,22 +60163,22 @@
         <v>1201</v>
       </c>
       <c r="B1202" s="21">
-        <v>533</v>
-      </c>
-      <c r="C1202" s="122" t="s">
-        <v>2059</v>
-      </c>
-      <c r="D1202" s="122" t="s">
-        <v>2130</v>
+        <v>530</v>
+      </c>
+      <c r="C1202" s="121" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D1202" s="123" t="s">
+        <v>2242</v>
       </c>
       <c r="E1202" s="21">
         <v>5</v>
       </c>
       <c r="F1202" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1202" s="122" t="s">
-        <v>2216</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1203" spans="1:7">
@@ -60141,22 +60186,22 @@
         <v>1202</v>
       </c>
       <c r="B1203" s="21">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C1203" s="122" t="s">
-        <v>2161</v>
-      </c>
-      <c r="D1203" s="21">
-        <v>4</v>
+        <v>2244</v>
+      </c>
+      <c r="D1203" s="122" t="s">
+        <v>2251</v>
       </c>
       <c r="E1203" s="21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1203" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1203" s="122" t="s">
-        <v>2219</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1204" spans="1:7">
@@ -60164,22 +60209,22 @@
         <v>1203</v>
       </c>
       <c r="B1204" s="21">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C1204" s="122" t="s">
-        <v>2161</v>
+        <v>2247</v>
       </c>
       <c r="D1204" s="21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1204" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1204" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1204" s="122" t="s">
-        <v>2220</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="1205" spans="1:7">
@@ -60187,22 +60232,22 @@
         <v>1204</v>
       </c>
       <c r="B1205" s="21">
-        <v>534</v>
-      </c>
-      <c r="C1205" s="9" t="s">
-        <v>1762</v>
+        <v>531</v>
+      </c>
+      <c r="C1205" s="10" t="s">
+        <v>1672</v>
       </c>
       <c r="D1205" s="9">
-        <v>604800</v>
+        <v>0</v>
       </c>
       <c r="E1205" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1205" s="9">
         <v>1</v>
       </c>
-      <c r="G1205" s="9" t="s">
-        <v>2244</v>
+      <c r="G1205" s="10" t="s">
+        <v>1764</v>
       </c>
     </row>
     <row r="1206" spans="1:7">
@@ -60210,22 +60255,22 @@
         <v>1205</v>
       </c>
       <c r="B1206" s="21">
-        <v>534</v>
-      </c>
-      <c r="C1206" s="10" t="s">
-        <v>1672</v>
-      </c>
-      <c r="D1206" s="9">
-        <v>0</v>
-      </c>
-      <c r="E1206" s="9">
+        <v>531</v>
+      </c>
+      <c r="C1206" s="121" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D1206" s="123" t="s">
+        <v>2242</v>
+      </c>
+      <c r="E1206" s="21">
         <v>5</v>
       </c>
-      <c r="F1206" s="9">
-        <v>1</v>
-      </c>
-      <c r="G1206" s="10" t="s">
-        <v>1764</v>
+      <c r="F1206" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1206" s="122" t="s">
+        <v>2243</v>
       </c>
     </row>
     <row r="1207" spans="1:7">
@@ -60233,13 +60278,13 @@
         <v>1206</v>
       </c>
       <c r="B1207" s="21">
-        <v>534</v>
-      </c>
-      <c r="C1207" s="121" t="s">
-        <v>1667</v>
-      </c>
-      <c r="D1207" s="123" t="s">
-        <v>2133</v>
+        <v>531</v>
+      </c>
+      <c r="C1207" s="122" t="s">
+        <v>2244</v>
+      </c>
+      <c r="D1207" s="122" t="s">
+        <v>2251</v>
       </c>
       <c r="E1207" s="21">
         <v>5</v>
@@ -60248,7 +60293,7 @@
         <v>1</v>
       </c>
       <c r="G1207" s="122" t="s">
-        <v>2209</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1208" spans="1:7">
@@ -60256,22 +60301,22 @@
         <v>1207</v>
       </c>
       <c r="B1208" s="21">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C1208" s="122" t="s">
-        <v>2059</v>
-      </c>
-      <c r="D1208" s="122" t="s">
-        <v>2130</v>
+        <v>2247</v>
+      </c>
+      <c r="D1208" s="21">
+        <v>1</v>
       </c>
       <c r="E1208" s="21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1208" s="21">
         <v>1</v>
       </c>
       <c r="G1208" s="122" t="s">
-        <v>2216</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1209" spans="1:7">
@@ -60279,22 +60324,22 @@
         <v>1208</v>
       </c>
       <c r="B1209" s="21">
-        <v>534</v>
-      </c>
-      <c r="C1209" s="122" t="s">
-        <v>2161</v>
-      </c>
-      <c r="D1209" s="21">
-        <v>7</v>
-      </c>
-      <c r="E1209" s="21">
+        <v>531</v>
+      </c>
+      <c r="C1209" s="9" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D1209" s="9">
+        <v>604800</v>
+      </c>
+      <c r="E1209" s="9">
         <v>3</v>
       </c>
-      <c r="F1209" s="21">
-        <v>1</v>
-      </c>
-      <c r="G1209" s="122" t="s">
-        <v>2225</v>
+      <c r="F1209" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1209" s="121" t="s">
+        <v>2239</v>
       </c>
     </row>
     <row r="1210" spans="1:7">
@@ -60302,13 +60347,13 @@
         <v>1209</v>
       </c>
       <c r="B1210" s="21">
-        <v>535</v>
-      </c>
-      <c r="C1210" s="10" t="s">
-        <v>1670</v>
-      </c>
-      <c r="D1210" s="24">
-        <v>1635811200</v>
+        <v>532</v>
+      </c>
+      <c r="C1210" s="9" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D1210" s="9">
+        <v>604800</v>
       </c>
       <c r="E1210" s="9">
         <v>3</v>
@@ -60316,8 +60361,8 @@
       <c r="F1210" s="9">
         <v>1</v>
       </c>
-      <c r="G1210" s="21" t="s">
-        <v>2240</v>
+      <c r="G1210" s="9" t="s">
+        <v>2239</v>
       </c>
     </row>
     <row r="1211" spans="1:7">
@@ -60325,22 +60370,22 @@
         <v>1210</v>
       </c>
       <c r="B1211" s="21">
-        <v>535</v>
-      </c>
-      <c r="C1211" s="121" t="s">
-        <v>1667</v>
-      </c>
-      <c r="D1211" s="123" t="s">
-        <v>2133</v>
-      </c>
-      <c r="E1211" s="21">
+        <v>532</v>
+      </c>
+      <c r="C1211" s="10" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D1211" s="9">
+        <v>0</v>
+      </c>
+      <c r="E1211" s="9">
         <v>5</v>
       </c>
-      <c r="F1211" s="21">
-        <v>1</v>
-      </c>
-      <c r="G1211" s="122" t="s">
-        <v>2209</v>
+      <c r="F1211" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1211" s="10" t="s">
+        <v>1764</v>
       </c>
     </row>
     <row r="1212" spans="1:7">
@@ -60348,13 +60393,13 @@
         <v>1211</v>
       </c>
       <c r="B1212" s="21">
-        <v>535</v>
-      </c>
-      <c r="C1212" s="122" t="s">
-        <v>2059</v>
-      </c>
-      <c r="D1212" s="122" t="s">
-        <v>2130</v>
+        <v>532</v>
+      </c>
+      <c r="C1212" s="121" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D1212" s="123" t="s">
+        <v>2242</v>
       </c>
       <c r="E1212" s="21">
         <v>5</v>
@@ -60363,6 +60408,397 @@
         <v>1</v>
       </c>
       <c r="G1212" s="122" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:7">
+      <c r="A1213" s="9">
+        <v>1212</v>
+      </c>
+      <c r="B1213" s="21">
+        <v>532</v>
+      </c>
+      <c r="C1213" s="122" t="s">
+        <v>2244</v>
+      </c>
+      <c r="D1213" s="122" t="s">
+        <v>2130</v>
+      </c>
+      <c r="E1213" s="21">
+        <v>5</v>
+      </c>
+      <c r="F1213" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1213" s="122" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:7">
+      <c r="A1214" s="9">
+        <v>1213</v>
+      </c>
+      <c r="B1214" s="21">
+        <v>532</v>
+      </c>
+      <c r="C1214" s="122" t="s">
+        <v>2249</v>
+      </c>
+      <c r="D1214" s="21">
+        <v>1</v>
+      </c>
+      <c r="E1214" s="21">
+        <v>3</v>
+      </c>
+      <c r="F1214" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1214" s="122" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:7">
+      <c r="A1215" s="9">
+        <v>1214</v>
+      </c>
+      <c r="B1215" s="21">
+        <v>532</v>
+      </c>
+      <c r="C1215" s="122" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D1215" s="21">
+        <v>3</v>
+      </c>
+      <c r="E1215" s="21">
+        <v>4</v>
+      </c>
+      <c r="F1215" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1215" s="122" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:7">
+      <c r="A1216" s="9">
+        <v>1215</v>
+      </c>
+      <c r="B1216" s="21">
+        <v>533</v>
+      </c>
+      <c r="C1216" s="9" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D1216" s="9">
+        <v>604800</v>
+      </c>
+      <c r="E1216" s="9">
+        <v>3</v>
+      </c>
+      <c r="F1216" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1216" s="9" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:7">
+      <c r="A1217" s="9">
+        <v>1216</v>
+      </c>
+      <c r="B1217" s="21">
+        <v>533</v>
+      </c>
+      <c r="C1217" s="10" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D1217" s="9">
+        <v>0</v>
+      </c>
+      <c r="E1217" s="9">
+        <v>5</v>
+      </c>
+      <c r="F1217" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1217" s="10" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:7">
+      <c r="A1218" s="9">
+        <v>1217</v>
+      </c>
+      <c r="B1218" s="21">
+        <v>533</v>
+      </c>
+      <c r="C1218" s="121" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D1218" s="123" t="s">
+        <v>2242</v>
+      </c>
+      <c r="E1218" s="21">
+        <v>5</v>
+      </c>
+      <c r="F1218" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1218" s="122" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:7">
+      <c r="A1219" s="9">
+        <v>1218</v>
+      </c>
+      <c r="B1219" s="21">
+        <v>533</v>
+      </c>
+      <c r="C1219" s="122" t="s">
+        <v>2244</v>
+      </c>
+      <c r="D1219" s="122" t="s">
+        <v>2251</v>
+      </c>
+      <c r="E1219" s="21">
+        <v>5</v>
+      </c>
+      <c r="F1219" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1219" s="122" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:7">
+      <c r="A1220" s="9">
+        <v>1219</v>
+      </c>
+      <c r="B1220" s="21">
+        <v>533</v>
+      </c>
+      <c r="C1220" s="122" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D1220" s="21">
+        <v>4</v>
+      </c>
+      <c r="E1220" s="21">
+        <v>3</v>
+      </c>
+      <c r="F1220" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1220" s="122" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:7">
+      <c r="A1221" s="9">
+        <v>1220</v>
+      </c>
+      <c r="B1221" s="21">
+        <v>533</v>
+      </c>
+      <c r="C1221" s="122" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D1221" s="21">
+        <v>6</v>
+      </c>
+      <c r="E1221" s="21">
+        <v>4</v>
+      </c>
+      <c r="F1221" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1221" s="122" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:7">
+      <c r="A1222" s="9">
+        <v>1221</v>
+      </c>
+      <c r="B1222" s="21">
+        <v>534</v>
+      </c>
+      <c r="C1222" s="9" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D1222" s="9">
+        <v>604800</v>
+      </c>
+      <c r="E1222" s="9">
+        <v>3</v>
+      </c>
+      <c r="F1222" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1222" s="9" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:7">
+      <c r="A1223" s="9">
+        <v>1222</v>
+      </c>
+      <c r="B1223" s="21">
+        <v>534</v>
+      </c>
+      <c r="C1223" s="10" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D1223" s="9">
+        <v>0</v>
+      </c>
+      <c r="E1223" s="9">
+        <v>5</v>
+      </c>
+      <c r="F1223" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1223" s="10" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:7">
+      <c r="A1224" s="9">
+        <v>1223</v>
+      </c>
+      <c r="B1224" s="21">
+        <v>534</v>
+      </c>
+      <c r="C1224" s="121" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D1224" s="123" t="s">
+        <v>2242</v>
+      </c>
+      <c r="E1224" s="21">
+        <v>5</v>
+      </c>
+      <c r="F1224" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1224" s="122" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:7">
+      <c r="A1225" s="9">
+        <v>1224</v>
+      </c>
+      <c r="B1225" s="21">
+        <v>534</v>
+      </c>
+      <c r="C1225" s="122" t="s">
+        <v>2244</v>
+      </c>
+      <c r="D1225" s="122" t="s">
+        <v>2245</v>
+      </c>
+      <c r="E1225" s="21">
+        <v>5</v>
+      </c>
+      <c r="F1225" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1225" s="122" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:7">
+      <c r="A1226" s="9">
+        <v>1225</v>
+      </c>
+      <c r="B1226" s="21">
+        <v>534</v>
+      </c>
+      <c r="C1226" s="122" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D1226" s="21">
+        <v>7</v>
+      </c>
+      <c r="E1226" s="21">
+        <v>3</v>
+      </c>
+      <c r="F1226" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1226" s="122" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:7">
+      <c r="A1227" s="9">
+        <v>1226</v>
+      </c>
+      <c r="B1227" s="21">
+        <v>535</v>
+      </c>
+      <c r="C1227" s="10" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D1227" s="24">
+        <v>1635811200</v>
+      </c>
+      <c r="E1227" s="9">
+        <v>3</v>
+      </c>
+      <c r="F1227" s="9">
+        <v>1</v>
+      </c>
+      <c r="G1227" s="21" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:7">
+      <c r="A1228" s="9">
+        <v>1227</v>
+      </c>
+      <c r="B1228" s="21">
+        <v>535</v>
+      </c>
+      <c r="C1228" s="121" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D1228" s="123" t="s">
+        <v>2242</v>
+      </c>
+      <c r="E1228" s="21">
+        <v>5</v>
+      </c>
+      <c r="F1228" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1228" s="122" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:7">
+      <c r="A1229" s="9">
+        <v>1228</v>
+      </c>
+      <c r="B1229" s="21">
+        <v>535</v>
+      </c>
+      <c r="C1229" s="122" t="s">
+        <v>2244</v>
+      </c>
+      <c r="D1229" s="122" t="s">
+        <v>2251</v>
+      </c>
+      <c r="E1229" s="21">
+        <v>5</v>
+      </c>
+      <c r="F1229" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1229" s="122" t="s">
         <v>2216</v>
       </c>
     </row>
@@ -60969,7 +61405,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>2245</v>
+        <v>2240</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>2047</v>
